--- a/Project_update.xlsx
+++ b/Project_update.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\CITIBIM\PROJECT MANAGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49A57DED-7845-4D8A-AFB3-A31BE3DA23B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B78B30E-EE99-44AD-9A98-58B74718C404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{C2CFD0C6-39D7-4C5A-ABF4-2FEEDD2C95A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C2CFD0C6-39D7-4C5A-ABF4-2FEEDD2C95A0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Timerline" sheetId="1" r:id="rId1"/>
+    <sheet name="Timeline" sheetId="1" r:id="rId1"/>
     <sheet name="Progress" sheetId="2" r:id="rId2"/>
     <sheet name="Cost" sheetId="3" r:id="rId3"/>
     <sheet name="Risk" sheetId="4" r:id="rId4"/>
@@ -479,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B3B4E8-7796-4180-A888-6B75AAFAD918}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -851,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8A3545-7C6D-4CD6-95EF-7A59B30603DA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
